--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>h6f9008g6iyl249</t>
-  </si>
-  <si>
-    <t>jvya05a7k917i08</t>
-  </si>
-  <si>
-    <t>kx46jvh531m9d60</t>
-  </si>
-  <si>
-    <t>eu3kmi38nt54825</t>
+    <t>mesu5p700d3ja57</t>
+  </si>
+  <si>
+    <t>67rgxmn16wdl1t3</t>
+  </si>
+  <si>
+    <t>978vx4h4n1d0t12</t>
+  </si>
+  <si>
+    <t>qtp57advs3xssvx</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>9lvg2gbx44a7n8x</t>
-  </si>
-  <si>
-    <t>160n1w84nsgd8iu</t>
-  </si>
-  <si>
-    <t>qr9kb9xesxd536r</t>
+    <t>x00hb59d369oi73</t>
+  </si>
+  <si>
+    <t>ty2if8tqb09qg33</t>
+  </si>
+  <si>
+    <t>j91su458oloof53</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>9e73t0ij3j7f0nf</t>
+    <t>7e4m3n9on40nvc6</t>
   </si>
   <si>
     <t>T3</t>

--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>mesu5p700d3ja57</t>
-  </si>
-  <si>
-    <t>67rgxmn16wdl1t3</t>
-  </si>
-  <si>
-    <t>978vx4h4n1d0t12</t>
-  </si>
-  <si>
-    <t>qtp57advs3xssvx</t>
+    <t>bfkgt1v508g78dc</t>
+  </si>
+  <si>
+    <t>nm3je437823p8rd</t>
+  </si>
+  <si>
+    <t>9228iq6ak1qett7</t>
+  </si>
+  <si>
+    <t>oes769417v92h69</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>x00hb59d369oi73</t>
-  </si>
-  <si>
-    <t>ty2if8tqb09qg33</t>
-  </si>
-  <si>
-    <t>j91su458oloof53</t>
+    <t>cnt5no0f0fjuc8y</t>
+  </si>
+  <si>
+    <t>a681e9wau7ms74f</t>
+  </si>
+  <si>
+    <t>skj148025c83707</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>7e4m3n9on40nvc6</t>
+    <t>g9v00zol2n2hf05</t>
   </si>
   <si>
     <t>T3</t>

--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>bfkgt1v508g78dc</t>
-  </si>
-  <si>
-    <t>nm3je437823p8rd</t>
-  </si>
-  <si>
-    <t>9228iq6ak1qett7</t>
-  </si>
-  <si>
-    <t>oes769417v92h69</t>
+    <t>r287445k397636v</t>
+  </si>
+  <si>
+    <t>o0k701899833syn</t>
+  </si>
+  <si>
+    <t>29k5z09pu083z17</t>
+  </si>
+  <si>
+    <t>ral65f969l2i021</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>cnt5no0f0fjuc8y</t>
-  </si>
-  <si>
-    <t>a681e9wau7ms74f</t>
-  </si>
-  <si>
-    <t>skj148025c83707</t>
+    <t>721775c46nu5dbb</t>
+  </si>
+  <si>
+    <t>4526v8k0ema390l</t>
+  </si>
+  <si>
+    <t>6744r3n65e16u49</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>g9v00zol2n2hf05</t>
+    <t>59iiat6631exp92</t>
   </si>
   <si>
     <t>T3</t>

--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>9a3isw0307ha035</t>
-  </si>
-  <si>
-    <t>tq0pg201eblhi2w</t>
-  </si>
-  <si>
-    <t>0pp2wa48gl49x82</t>
-  </si>
-  <si>
-    <t>vmt32g416h3aikm</t>
+    <t>85v2za4dbhq58p4</t>
+  </si>
+  <si>
+    <t>qm0jg6cax1xh3j2</t>
+  </si>
+  <si>
+    <t>38512183psg5j82</t>
+  </si>
+  <si>
+    <t>924qsgqdg3oc303</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>81m229035gz2d1e</t>
-  </si>
-  <si>
-    <t>4fp5gl0b0a5zxk2</t>
-  </si>
-  <si>
-    <t>6t4332z7n2vd1e4</t>
+    <t>1ny3foo2da3lk4f</t>
+  </si>
+  <si>
+    <t>1995i0mpnpk5q8w</t>
+  </si>
+  <si>
+    <t>d0d26q9zqni84k1</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>e86a9krjfo7p89j</t>
+    <t>0mlzzb8p7ki87bx</t>
   </si>
   <si>
     <t>T3</t>
@@ -1003,14 +1003,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="160" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -1079,26 +1079,21 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="30" customHeight="1" s="27" customFormat="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="8" customFormat="1">
       <c r="A8" s="8" t="s">
@@ -1253,22 +1248,17 @@
       <c r="E19" s="28"/>
     </row>
     <row r="20" ht="30" customHeight="1" s="4" customFormat="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" ht="28" customHeight="1" s="29" customFormat="1">
       <c r="A21" s="29" t="s">

--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>85v2za4dbhq58p4</t>
-  </si>
-  <si>
-    <t>qm0jg6cax1xh3j2</t>
-  </si>
-  <si>
-    <t>38512183psg5j82</t>
-  </si>
-  <si>
-    <t>924qsgqdg3oc303</t>
+    <t>ui9v547jxpt9of6</t>
+  </si>
+  <si>
+    <t>6xmay00ev2l4pl1</t>
+  </si>
+  <si>
+    <t>1f1s9j33q3lll85</t>
+  </si>
+  <si>
+    <t>rdo4e4x959n4262</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>1ny3foo2da3lk4f</t>
-  </si>
-  <si>
-    <t>1995i0mpnpk5q8w</t>
-  </si>
-  <si>
-    <t>d0d26q9zqni84k1</t>
+    <t>ka5njrmwml2tw7y</t>
+  </si>
+  <si>
+    <t>225el2d7iyhk1i6</t>
+  </si>
+  <si>
+    <t>4f1z9ba31h53526</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>0mlzzb8p7ki87bx</t>
+    <t>ds2d4310f2yqd8a</t>
   </si>
   <si>
     <t>T3</t>

--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>ui9v547jxpt9of6</t>
-  </si>
-  <si>
-    <t>6xmay00ev2l4pl1</t>
-  </si>
-  <si>
-    <t>1f1s9j33q3lll85</t>
-  </si>
-  <si>
-    <t>rdo4e4x959n4262</t>
+    <t>4b44pz84e13934k</t>
+  </si>
+  <si>
+    <t>15ikn58z719910o</t>
+  </si>
+  <si>
+    <t>1b1ejz1ds8x9782</t>
+  </si>
+  <si>
+    <t>ir6w36l8441kx3f</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>ka5njrmwml2tw7y</t>
-  </si>
-  <si>
-    <t>225el2d7iyhk1i6</t>
-  </si>
-  <si>
-    <t>4f1z9ba31h53526</t>
+    <t>4a73q62w180m377</t>
+  </si>
+  <si>
+    <t>ut3j26acgfkqnuo</t>
+  </si>
+  <si>
+    <t>061atd70d46krvg</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>ds2d4310f2yqd8a</t>
+    <t>p9x3i35263e933x</t>
   </si>
   <si>
     <t>T3</t>

--- a/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_exporttext.xlsx_custom_table_entry.xlsx
@@ -57,34 +57,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>4b44pz84e13934k</t>
-  </si>
-  <si>
-    <t>15ikn58z719910o</t>
-  </si>
-  <si>
-    <t>1b1ejz1ds8x9782</t>
-  </si>
-  <si>
-    <t>ir6w36l8441kx3f</t>
+    <t>ik32wn4lm5md0i4</t>
+  </si>
+  <si>
+    <t>v1v93fo99d18re7</t>
+  </si>
+  <si>
+    <t>4844q26bttjp105</t>
+  </si>
+  <si>
+    <t>7gu6oe65222yqyj</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>4a73q62w180m377</t>
-  </si>
-  <si>
-    <t>ut3j26acgfkqnuo</t>
-  </si>
-  <si>
-    <t>061atd70d46krvg</t>
+    <t>r68hol61407q427</t>
+  </si>
+  <si>
+    <t>trp073a13f817y3</t>
+  </si>
+  <si>
+    <t>vmrb96224736623</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>p9x3i35263e933x</t>
+    <t>rj751m43t5tztt4</t>
   </si>
   <si>
     <t>T3</t>
